--- a/user-data/population-by-age/population-by-age.xlsx
+++ b/user-data/population-by-age/population-by-age.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -1317,9 +1317,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1699,22 +1696,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11">
@@ -1730,11 +1727,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/population-by-age/population-by-age.xlsx
+++ b/user-data/population-by-age/population-by-age.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>id</t>
   </si>
@@ -1326,7 +1326,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1729,6 +1732,11 @@
         <v>439</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/population-by-age/population-by-age.xlsx
+++ b/user-data/population-by-age/population-by-age.xlsx
@@ -72,7 +72,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -180,7 +180,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -217,12 +217,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -303,6 +297,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -996,7 +996,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1014,7 +1014,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1188,7 +1188,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1212,7 +1212,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1233,16 +1233,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1335,7 +1335,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -10210,13 +10210,13 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>  6790861</v>
+        <v>  4985133</v>
       </c>
       <c r="E436" t="n">
-        <v>  8873248</v>
+        <v>  6768993</v>
       </c>
       <c r="F436" t="n">
-        <v>   467223</v>
+        <v>   468745</v>
       </c>
     </row>
     <row r="437">
@@ -10230,13 +10230,13 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>  6912964</v>
+        <v>  4953840</v>
       </c>
       <c r="E437" t="n">
-        <v>  9030623</v>
+        <v>  7029029</v>
       </c>
       <c r="F437" t="n">
-        <v>   476590</v>
+        <v>   489718</v>
       </c>
     </row>
     <row r="438">
@@ -10250,13 +10250,13 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>  7029675</v>
+        <v>  4926214</v>
       </c>
       <c r="E438" t="n">
-        <v>  9160204</v>
+        <v>  7270980</v>
       </c>
       <c r="F438" t="n">
-        <v>   485109</v>
+        <v>   512139</v>
       </c>
     </row>
     <row r="439">
@@ -10270,13 +10270,13 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>  7142106</v>
+        <v>  4898513</v>
       </c>
       <c r="E439" t="n">
-        <v>  9274170</v>
+        <v>  7500055</v>
       </c>
       <c r="F439" t="n">
-        <v>   493525</v>
+        <v>   535801</v>
       </c>
     </row>
     <row r="440">
@@ -10290,13 +10290,13 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>  7251888</v>
+        <v>  4863540</v>
       </c>
       <c r="E440" t="n">
-        <v>  9389602</v>
+        <v>  7725496</v>
       </c>
       <c r="F440" t="n">
-        <v>   502834</v>
+        <v>   560348</v>
       </c>
     </row>
     <row r="441">
@@ -10310,13 +10310,13 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>  7360628</v>
+        <v>  4817172</v>
       </c>
       <c r="E441" t="n">
-        <v>  9519628</v>
+        <v>  7953716</v>
       </c>
       <c r="F441" t="n">
-        <v>   513738</v>
+        <v>   585536</v>
       </c>
     </row>
     <row r="442">
@@ -10330,13 +10330,13 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>  7468283</v>
+        <v>  4758013</v>
       </c>
       <c r="E442" t="n">
-        <v>  9667605</v>
+        <v>  8185577</v>
       </c>
       <c r="F442" t="n">
-        <v>   526531</v>
+        <v>   611460</v>
       </c>
     </row>
     <row r="443">
@@ -10350,13 +10350,13 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>  7575704</v>
+        <v>  4691780</v>
       </c>
       <c r="E443" t="n">
-        <v>  9832353</v>
+        <v>  8417235</v>
       </c>
       <c r="F443" t="n">
-        <v>   541007</v>
+        <v>   638273</v>
       </c>
     </row>
     <row r="444">
@@ -10370,13 +10370,13 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>  7686451</v>
+        <v>  4629721</v>
       </c>
       <c r="E444" t="n">
-        <v> 10016832</v>
+        <v>  8644970</v>
       </c>
       <c r="F444" t="n">
-        <v>   556759</v>
+        <v>   665830</v>
       </c>
     </row>
     <row r="445">
@@ -10390,13 +10390,13 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>  7805033</v>
+        <v>  4586785</v>
       </c>
       <c r="E445" t="n">
-        <v> 10223168</v>
+        <v>  8863495</v>
       </c>
       <c r="F445" t="n">
-        <v>   573141</v>
+        <v>   693944</v>
       </c>
     </row>
     <row r="446">
@@ -10410,13 +10410,13 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>  7934587</v>
+        <v>  4573253</v>
       </c>
       <c r="E446" t="n">
-        <v> 10452338</v>
+        <v>  9069107</v>
       </c>
       <c r="F446" t="n">
-        <v>   589663</v>
+        <v>   722571</v>
       </c>
     </row>
     <row r="447">
@@ -10430,13 +10430,13 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>  8076714</v>
+        <v>  4593277</v>
       </c>
       <c r="E447" t="n">
-        <v> 10706961</v>
+        <v>  9261107</v>
       </c>
       <c r="F447" t="n">
-        <v>   606280</v>
+        <v>   751482</v>
       </c>
     </row>
     <row r="448">
@@ -10450,13 +10450,13 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>  8230452</v>
+        <v>  4642630</v>
       </c>
       <c r="E448" t="n">
-        <v> 10986183</v>
+        <v>  9441080</v>
       </c>
       <c r="F448" t="n">
-        <v>   623114</v>
+        <v>   780937</v>
       </c>
     </row>
     <row r="449">
@@ -10470,13 +10470,13 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>  8397252</v>
+        <v>  4704539</v>
       </c>
       <c r="E449" t="n">
-        <v> 11274611</v>
+        <v>  9620578</v>
       </c>
       <c r="F449" t="n">
-        <v>   644223</v>
+        <v>   810052</v>
       </c>
     </row>
     <row r="450">
@@ -10490,13 +10490,13 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>  4985133</v>
+        <v>  7211621</v>
       </c>
       <c r="E450" t="n">
-        <v>  6768993</v>
+        <v>  8176262</v>
       </c>
       <c r="F450" t="n">
-        <v>   468745</v>
+        <v>   539830</v>
       </c>
     </row>
     <row r="451">
@@ -10510,13 +10510,13 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>  4953840</v>
+        <v>  7370683</v>
       </c>
       <c r="E451" t="n">
-        <v>  7029029</v>
+        <v>  8427980</v>
       </c>
       <c r="F451" t="n">
-        <v>   489718</v>
+        <v>   551774</v>
       </c>
     </row>
     <row r="452">
@@ -10530,13 +10530,13 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>  4926214</v>
+        <v>  7532458</v>
       </c>
       <c r="E452" t="n">
-        <v>  7270980</v>
+        <v>  8685791</v>
       </c>
       <c r="F452" t="n">
-        <v>   512139</v>
+        <v>   563798</v>
       </c>
     </row>
     <row r="453">
@@ -10550,13 +10550,13 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>  4898513</v>
+        <v>  7697349</v>
       </c>
       <c r="E453" t="n">
-        <v>  7500055</v>
+        <v>  8949978</v>
       </c>
       <c r="F453" t="n">
-        <v>   535801</v>
+        <v>   575948</v>
       </c>
     </row>
     <row r="454">
@@ -10570,13 +10570,13 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>  4863540</v>
+        <v>  7865614</v>
       </c>
       <c r="E454" t="n">
-        <v>  7725496</v>
+        <v>  9221030</v>
       </c>
       <c r="F454" t="n">
-        <v>   560348</v>
+        <v>   588314</v>
       </c>
     </row>
     <row r="455">
@@ -10590,13 +10590,13 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>  4817172</v>
+        <v>  8037451</v>
       </c>
       <c r="E455" t="n">
-        <v>  7953716</v>
+        <v>  9499329</v>
       </c>
       <c r="F455" t="n">
-        <v>   585536</v>
+        <v>   600954</v>
       </c>
     </row>
     <row r="456">
@@ -10610,13 +10610,13 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>  4758013</v>
+        <v>  8212891</v>
       </c>
       <c r="E456" t="n">
-        <v>  8185577</v>
+        <v>  9785148</v>
       </c>
       <c r="F456" t="n">
-        <v>   611460</v>
+        <v>   613899</v>
       </c>
     </row>
     <row r="457">
@@ -10630,13 +10630,13 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>  4691780</v>
+        <v>  8392021</v>
       </c>
       <c r="E457" t="n">
-        <v>  8417235</v>
+        <v> 10078494</v>
       </c>
       <c r="F457" t="n">
-        <v>   638273</v>
+        <v>   627161</v>
       </c>
     </row>
     <row r="458">
@@ -10650,13 +10650,13 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>  4629721</v>
+        <v>  8575063</v>
       </c>
       <c r="E458" t="n">
-        <v>  8644970</v>
+        <v> 10379161</v>
       </c>
       <c r="F458" t="n">
-        <v>   665830</v>
+        <v>   640806</v>
       </c>
     </row>
     <row r="459">
@@ -10670,13 +10670,13 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>  4586785</v>
+        <v>  8762245</v>
       </c>
       <c r="E459" t="n">
-        <v>  8863495</v>
+        <v> 10686830</v>
       </c>
       <c r="F459" t="n">
-        <v>   693944</v>
+        <v>   654871</v>
       </c>
     </row>
     <row r="460">
@@ -10690,13 +10690,13 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>  4573253</v>
+        <v>  8953527</v>
       </c>
       <c r="E460" t="n">
-        <v>  9069107</v>
+        <v> 11001405</v>
       </c>
       <c r="F460" t="n">
-        <v>   722571</v>
+        <v>   669411</v>
       </c>
     </row>
     <row r="461">
@@ -10710,13 +10710,13 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>  4593277</v>
+        <v>  9148953</v>
       </c>
       <c r="E461" t="n">
-        <v>  9261107</v>
+        <v> 11322844</v>
       </c>
       <c r="F461" t="n">
-        <v>   751482</v>
+        <v>   684477</v>
       </c>
     </row>
     <row r="462">
@@ -10730,13 +10730,13 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>  4642630</v>
+        <v>  9347862</v>
       </c>
       <c r="E462" t="n">
-        <v>  9441080</v>
+        <v> 11651684</v>
       </c>
       <c r="F462" t="n">
-        <v>   780937</v>
+        <v>   700087</v>
       </c>
     </row>
     <row r="463">
@@ -10750,13 +10750,13 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>  4704539</v>
+        <v>  9559669</v>
       </c>
       <c r="E463" t="n">
-        <v>  9620578</v>
+        <v> 11975518</v>
       </c>
       <c r="F463" t="n">
-        <v>   810052</v>
+        <v>   718772</v>
       </c>
     </row>
     <row r="464">
@@ -10770,13 +10770,13 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>  7211621</v>
+        <v>  5898831</v>
       </c>
       <c r="E464" t="n">
-        <v>  8176262</v>
+        <v> 21009408</v>
       </c>
       <c r="F464" t="n">
-        <v>   539830</v>
+        <v>  3861462</v>
       </c>
     </row>
     <row r="465">
@@ -10790,13 +10790,13 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>  7370683</v>
+        <v>  5867051</v>
       </c>
       <c r="E465" t="n">
-        <v>  8427980</v>
+        <v> 21282240</v>
       </c>
       <c r="F465" t="n">
-        <v>   551774</v>
+        <v>  3932610</v>
       </c>
     </row>
     <row r="466">
@@ -10810,13 +10810,13 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>  7532458</v>
+        <v>  5826177</v>
       </c>
       <c r="E466" t="n">
-        <v>  8685791</v>
+        <v> 21536498</v>
       </c>
       <c r="F466" t="n">
-        <v>   563798</v>
+        <v>  3999324</v>
       </c>
     </row>
     <row r="467">
@@ -10830,13 +10830,13 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>  7697349</v>
+        <v>  5789197</v>
       </c>
       <c r="E467" t="n">
-        <v>  8949978</v>
+        <v> 21814617</v>
       </c>
       <c r="F467" t="n">
-        <v>   575948</v>
+        <v>  4072185</v>
       </c>
     </row>
     <row r="468">
@@ -10850,13 +10850,13 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>  7865614</v>
+        <v>  5750972</v>
       </c>
       <c r="E468" t="n">
-        <v>  9221030</v>
+        <v> 22093615</v>
       </c>
       <c r="F468" t="n">
-        <v>   588314</v>
+        <v>  4150412</v>
       </c>
     </row>
     <row r="469">
@@ -10870,13 +10870,13 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>  8037451</v>
+        <v>  5711227</v>
       </c>
       <c r="E469" t="n">
-        <v>  9499329</v>
+        <v> 22365314</v>
       </c>
       <c r="F469" t="n">
-        <v>   600954</v>
+        <v>  4235458</v>
       </c>
     </row>
     <row r="470">
@@ -10890,13 +10890,13 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>  8212891</v>
+        <v>  5660216</v>
       </c>
       <c r="E470" t="n">
-        <v>  9785148</v>
+        <v> 22590063</v>
       </c>
       <c r="F470" t="n">
-        <v>   613899</v>
+        <v>  4320225</v>
       </c>
     </row>
     <row r="471">
@@ -10910,13 +10910,13 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>  8392021</v>
+        <v>  5620906</v>
       </c>
       <c r="E471" t="n">
-        <v> 10078494</v>
+        <v> 22846494</v>
       </c>
       <c r="F471" t="n">
-        <v>   627161</v>
+        <v>  4420528</v>
       </c>
     </row>
     <row r="472">
@@ -10930,13 +10930,13 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>  8575063</v>
+        <v>  5595685</v>
       </c>
       <c r="E472" t="n">
-        <v> 10379161</v>
+        <v> 23113800</v>
       </c>
       <c r="F472" t="n">
-        <v>   640806</v>
+        <v>  4536288</v>
       </c>
     </row>
     <row r="473">
@@ -10950,13 +10950,13 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>  8762245</v>
+        <v>  5589189</v>
       </c>
       <c r="E473" t="n">
-        <v> 10686830</v>
+        <v> 23371213</v>
       </c>
       <c r="F473" t="n">
-        <v>   654871</v>
+        <v>  4668166</v>
       </c>
     </row>
     <row r="474">
@@ -10970,13 +10970,13 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>  8953527</v>
+        <v>  5601292</v>
       </c>
       <c r="E474" t="n">
-        <v> 11001405</v>
+        <v> 23590292</v>
       </c>
       <c r="F474" t="n">
-        <v>   669411</v>
+        <v>  4813689</v>
       </c>
     </row>
     <row r="475">
@@ -10990,13 +10990,13 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>  9148953</v>
+        <v>  5628600</v>
       </c>
       <c r="E475" t="n">
-        <v> 11322844</v>
+        <v> 23744726</v>
       </c>
       <c r="F475" t="n">
-        <v>   684477</v>
+        <v>  4969453</v>
       </c>
     </row>
     <row r="476">
@@ -11010,13 +11010,13 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>  9347862</v>
+        <v>  5687780</v>
       </c>
       <c r="E476" t="n">
-        <v> 11651684</v>
+        <v> 23915383</v>
       </c>
       <c r="F476" t="n">
-        <v>   700087</v>
+        <v>  5151152</v>
       </c>
     </row>
     <row r="477">
@@ -11030,13 +11030,13 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>  9559669</v>
+        <v>  5781001</v>
       </c>
       <c r="E477" t="n">
-        <v> 11975518</v>
+        <v> 24039023</v>
       </c>
       <c r="F477" t="n">
-        <v>   718772</v>
+        <v>  5338280</v>
       </c>
     </row>
     <row r="478">
@@ -11050,13 +11050,13 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>  5898831</v>
+        <v>   184766</v>
       </c>
       <c r="E478" t="n">
-        <v> 21009408</v>
+        <v>   234220</v>
       </c>
       <c r="F478" t="n">
-        <v>  3861462</v>
+        <v>    23440</v>
       </c>
     </row>
     <row r="479">
@@ -11070,13 +11070,13 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>  5867051</v>
+        <v>   184410</v>
       </c>
       <c r="E479" t="n">
-        <v> 21282240</v>
+        <v>   242070</v>
       </c>
       <c r="F479" t="n">
-        <v>  3932610</v>
+        <v>    24333</v>
       </c>
     </row>
     <row r="480">
@@ -11090,13 +11090,13 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>  5826177</v>
+        <v>   183505</v>
       </c>
       <c r="E480" t="n">
-        <v> 21536498</v>
+        <v>   250350</v>
       </c>
       <c r="F480" t="n">
-        <v>  3999324</v>
+        <v>    25284</v>
       </c>
     </row>
     <row r="481">
@@ -11110,13 +11110,13 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>  5789197</v>
+        <v>   181983</v>
       </c>
       <c r="E481" t="n">
-        <v> 21814617</v>
+        <v>   258745</v>
       </c>
       <c r="F481" t="n">
-        <v>  4072185</v>
+        <v>    26214</v>
       </c>
     </row>
     <row r="482">
@@ -11130,13 +11130,13 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>  5750972</v>
+        <v>   179741</v>
       </c>
       <c r="E482" t="n">
-        <v> 22093615</v>
+        <v>   266822</v>
       </c>
       <c r="F482" t="n">
-        <v>  4150412</v>
+        <v>    27018</v>
       </c>
     </row>
     <row r="483">
@@ -11150,13 +11150,13 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>  5711227</v>
+        <v>   176752</v>
       </c>
       <c r="E483" t="n">
-        <v> 22365314</v>
+        <v>   274276</v>
       </c>
       <c r="F483" t="n">
-        <v>  4235458</v>
+        <v>    27623</v>
       </c>
     </row>
     <row r="484">
@@ -11170,13 +11170,13 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>  5660216</v>
+        <v>   172972</v>
       </c>
       <c r="E484" t="n">
-        <v> 22590063</v>
+        <v>   280945</v>
       </c>
       <c r="F484" t="n">
-        <v>  4320225</v>
+        <v>    28020</v>
       </c>
     </row>
     <row r="485">
@@ -11190,13 +11190,13 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>  5620906</v>
+        <v>   168535</v>
       </c>
       <c r="E485" t="n">
-        <v> 22846494</v>
+        <v>   286941</v>
       </c>
       <c r="F485" t="n">
-        <v>  4420528</v>
+        <v>    28236</v>
       </c>
     </row>
     <row r="486">
@@ -11210,13 +11210,13 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>  5595685</v>
+        <v>   163799</v>
       </c>
       <c r="E486" t="n">
-        <v> 23113800</v>
+        <v>   292570</v>
       </c>
       <c r="F486" t="n">
-        <v>  4536288</v>
+        <v>    28280</v>
       </c>
     </row>
     <row r="487">
@@ -11230,13 +11230,13 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>  5589189</v>
+        <v>   159244</v>
       </c>
       <c r="E487" t="n">
-        <v> 23371213</v>
+        <v>   298292</v>
       </c>
       <c r="F487" t="n">
-        <v>  4668166</v>
+        <v>    28176</v>
       </c>
     </row>
     <row r="488">
@@ -11250,13 +11250,13 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>  5601292</v>
+        <v>   155222</v>
       </c>
       <c r="E488" t="n">
-        <v> 23590292</v>
+        <v>   304418</v>
       </c>
       <c r="F488" t="n">
-        <v>  4813689</v>
+        <v>    27961</v>
       </c>
     </row>
     <row r="489">
@@ -11270,13 +11270,13 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>  5628600</v>
+        <v>   151877</v>
       </c>
       <c r="E489" t="n">
-        <v> 23744726</v>
+        <v>   311061</v>
       </c>
       <c r="F489" t="n">
-        <v>  4969453</v>
+        <v>    27615</v>
       </c>
     </row>
     <row r="490">
@@ -11290,13 +11290,13 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>  5687780</v>
+        <v>   149148</v>
       </c>
       <c r="E490" t="n">
-        <v> 23915383</v>
+        <v>   318074</v>
       </c>
       <c r="F490" t="n">
-        <v>  5151152</v>
+        <v>    27177</v>
       </c>
     </row>
     <row r="491">
@@ -11310,13 +11310,13 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>  5781001</v>
+        <v>   147336</v>
       </c>
       <c r="E491" t="n">
-        <v> 24039023</v>
+        <v>   325001</v>
       </c>
       <c r="F491" t="n">
-        <v>  5338280</v>
+        <v>    26560</v>
       </c>
     </row>
     <row r="492">
@@ -11330,13 +11330,13 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>   184766</v>
+        <v>  1538678</v>
       </c>
       <c r="E492" t="n">
-        <v>   234220</v>
+        <v>  1954571</v>
       </c>
       <c r="F492" t="n">
-        <v>    23440</v>
+        <v>   145067</v>
       </c>
     </row>
     <row r="493">
@@ -11350,13 +11350,13 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>   184410</v>
+        <v>  1564036</v>
       </c>
       <c r="E493" t="n">
-        <v>   242070</v>
+        <v>  1992484</v>
       </c>
       <c r="F493" t="n">
-        <v>    24333</v>
+        <v>   147524</v>
       </c>
     </row>
     <row r="494">
@@ -11370,13 +11370,13 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>   183505</v>
+        <v>  1588521</v>
       </c>
       <c r="E494" t="n">
-        <v>   250350</v>
+        <v>  2028811</v>
       </c>
       <c r="F494" t="n">
-        <v>    25284</v>
+        <v>   149916</v>
       </c>
     </row>
     <row r="495">
@@ -11390,13 +11390,13 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>   181983</v>
+        <v>  1612245</v>
       </c>
       <c r="E495" t="n">
-        <v>   258745</v>
+        <v>  2065124</v>
       </c>
       <c r="F495" t="n">
-        <v>    26214</v>
+        <v>   152266</v>
       </c>
     </row>
     <row r="496">
@@ -11410,13 +11410,13 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>   179741</v>
+        <v>  1635396</v>
       </c>
       <c r="E496" t="n">
-        <v>   266822</v>
+        <v>  2103576</v>
       </c>
       <c r="F496" t="n">
-        <v>    27018</v>
+        <v>   154619</v>
       </c>
     </row>
     <row r="497">
@@ -11430,13 +11430,13 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>   176752</v>
+        <v>  1658135</v>
       </c>
       <c r="E497" t="n">
-        <v>   274276</v>
+        <v>  2145759</v>
       </c>
       <c r="F497" t="n">
-        <v>    27623</v>
+        <v>   157003</v>
       </c>
     </row>
     <row r="498">
@@ -11450,13 +11450,13 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>   172972</v>
+        <v>  1680478</v>
       </c>
       <c r="E498" t="n">
-        <v>   280945</v>
+        <v>  2192185</v>
       </c>
       <c r="F498" t="n">
-        <v>    28020</v>
+        <v>   159437</v>
       </c>
     </row>
     <row r="499">
@@ -11470,13 +11470,13 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>   168535</v>
+        <v>  1702452</v>
       </c>
       <c r="E499" t="n">
-        <v>   286941</v>
+        <v>  2242522</v>
       </c>
       <c r="F499" t="n">
-        <v>    28236</v>
+        <v>   161921</v>
       </c>
     </row>
     <row r="500">
@@ -11490,13 +11490,13 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>   163799</v>
+        <v>  1724241</v>
       </c>
       <c r="E500" t="n">
-        <v>   292570</v>
+        <v>  2296435</v>
       </c>
       <c r="F500" t="n">
-        <v>    28280</v>
+        <v>   164433</v>
       </c>
     </row>
     <row r="501">
@@ -11510,13 +11510,13 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>   159244</v>
+        <v>  1746067</v>
       </c>
       <c r="E501" t="n">
-        <v>   298292</v>
+        <v>  2353251</v>
       </c>
       <c r="F501" t="n">
-        <v>    28176</v>
+        <v>   166929</v>
       </c>
     </row>
     <row r="502">
@@ -11530,13 +11530,13 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>   155222</v>
+        <v>  1768099</v>
       </c>
       <c r="E502" t="n">
-        <v>   304418</v>
+        <v>  2412430</v>
       </c>
       <c r="F502" t="n">
-        <v>    27961</v>
+        <v>   169392</v>
       </c>
     </row>
     <row r="503">
@@ -11550,13 +11550,13 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>   151877</v>
+        <v>  1790431</v>
       </c>
       <c r="E503" t="n">
-        <v>   311061</v>
+        <v>  2473968</v>
       </c>
       <c r="F503" t="n">
-        <v>    27615</v>
+        <v>   171818</v>
       </c>
     </row>
     <row r="504">
@@ -11570,13 +11570,13 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>   149148</v>
+        <v>  1813053</v>
       </c>
       <c r="E504" t="n">
-        <v>   318074</v>
+        <v>  2537915</v>
       </c>
       <c r="F504" t="n">
-        <v>    27177</v>
+        <v>   174239</v>
       </c>
     </row>
     <row r="505">
@@ -11590,13 +11590,13 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>   147336</v>
+        <v>  1838566</v>
       </c>
       <c r="E505" t="n">
-        <v>   325001</v>
+        <v>  2600383</v>
       </c>
       <c r="F505" t="n">
-        <v>    26560</v>
+        <v>   177468</v>
       </c>
     </row>
     <row r="506">
@@ -11609,15 +11609,9 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>  1538678</v>
-      </c>
-      <c r="E506" t="n">
-        <v>  1954571</v>
-      </c>
-      <c r="F506" t="n">
-        <v>   145067</v>
-      </c>
+      <c r="D506"/>
+      <c r="E506"/>
+      <c r="F506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -11629,15 +11623,9 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>  1564036</v>
-      </c>
-      <c r="E507" t="n">
-        <v>  1992484</v>
-      </c>
-      <c r="F507" t="n">
-        <v>   147524</v>
-      </c>
+      <c r="D507"/>
+      <c r="E507"/>
+      <c r="F507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -11649,15 +11637,9 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>  1588521</v>
-      </c>
-      <c r="E508" t="n">
-        <v>  2028811</v>
-      </c>
-      <c r="F508" t="n">
-        <v>   149916</v>
-      </c>
+      <c r="D508"/>
+      <c r="E508"/>
+      <c r="F508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -11669,15 +11651,9 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>  1612245</v>
-      </c>
-      <c r="E509" t="n">
-        <v>  2065124</v>
-      </c>
-      <c r="F509" t="n">
-        <v>   152266</v>
-      </c>
+      <c r="D509"/>
+      <c r="E509"/>
+      <c r="F509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -11689,15 +11665,9 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>  1635396</v>
-      </c>
-      <c r="E510" t="n">
-        <v>  2103576</v>
-      </c>
-      <c r="F510" t="n">
-        <v>   154619</v>
-      </c>
+      <c r="D510"/>
+      <c r="E510"/>
+      <c r="F510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -11709,15 +11679,9 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>  1658135</v>
-      </c>
-      <c r="E511" t="n">
-        <v>  2145759</v>
-      </c>
-      <c r="F511" t="n">
-        <v>   157003</v>
-      </c>
+      <c r="D511"/>
+      <c r="E511"/>
+      <c r="F511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -11729,15 +11693,9 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>  1680478</v>
-      </c>
-      <c r="E512" t="n">
-        <v>  2192185</v>
-      </c>
-      <c r="F512" t="n">
-        <v>   159437</v>
-      </c>
+      <c r="D512"/>
+      <c r="E512"/>
+      <c r="F512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -11749,15 +11707,9 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>  1702452</v>
-      </c>
-      <c r="E513" t="n">
-        <v>  2242522</v>
-      </c>
-      <c r="F513" t="n">
-        <v>   161921</v>
-      </c>
+      <c r="D513"/>
+      <c r="E513"/>
+      <c r="F513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -11769,15 +11721,9 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>  1724241</v>
-      </c>
-      <c r="E514" t="n">
-        <v>  2296435</v>
-      </c>
-      <c r="F514" t="n">
-        <v>   164433</v>
-      </c>
+      <c r="D514"/>
+      <c r="E514"/>
+      <c r="F514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -11789,15 +11735,9 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>  1746067</v>
-      </c>
-      <c r="E515" t="n">
-        <v>  2353251</v>
-      </c>
-      <c r="F515" t="n">
-        <v>   166929</v>
-      </c>
+      <c r="D515"/>
+      <c r="E515"/>
+      <c r="F515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -11809,15 +11749,9 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>  1768099</v>
-      </c>
-      <c r="E516" t="n">
-        <v>  2412430</v>
-      </c>
-      <c r="F516" t="n">
-        <v>   169392</v>
-      </c>
+      <c r="D516"/>
+      <c r="E516"/>
+      <c r="F516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -11829,15 +11763,9 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>  1790431</v>
-      </c>
-      <c r="E517" t="n">
-        <v>  2473968</v>
-      </c>
-      <c r="F517" t="n">
-        <v>   171818</v>
-      </c>
+      <c r="D517"/>
+      <c r="E517"/>
+      <c r="F517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -11849,15 +11777,9 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>  1813053</v>
-      </c>
-      <c r="E518" t="n">
-        <v>  2537915</v>
-      </c>
-      <c r="F518" t="n">
-        <v>   174239</v>
-      </c>
+      <c r="D518"/>
+      <c r="E518"/>
+      <c r="F518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -11869,15 +11791,9 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>  1838566</v>
-      </c>
-      <c r="E519" t="n">
-        <v>  2600383</v>
-      </c>
-      <c r="F519" t="n">
-        <v>   177468</v>
-      </c>
+      <c r="D519"/>
+      <c r="E519"/>
+      <c r="F519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -11889,9 +11805,15 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
-      <c r="E520"/>
-      <c r="F520"/>
+      <c r="D520" t="n">
+        <v>  4065218</v>
+      </c>
+      <c r="E520" t="n">
+        <v>  3999691</v>
+      </c>
+      <c r="F520" t="n">
+        <v>   236242</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -11903,9 +11825,15 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
-      <c r="E521"/>
-      <c r="F521"/>
+      <c r="D521" t="n">
+        <v>  4230043</v>
+      </c>
+      <c r="E521" t="n">
+        <v>  4148768</v>
+      </c>
+      <c r="F521" t="n">
+        <v>   242105</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -11917,9 +11845,15 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
-      <c r="E522"/>
-      <c r="F522"/>
+      <c r="D522" t="n">
+        <v>  4403604</v>
+      </c>
+      <c r="E522" t="n">
+        <v>  4308028</v>
+      </c>
+      <c r="F522" t="n">
+        <v>   248331</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -11931,9 +11865,15 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
-      <c r="E523"/>
-      <c r="F523"/>
+      <c r="D523" t="n">
+        <v>  4581794</v>
+      </c>
+      <c r="E523" t="n">
+        <v>  4474709</v>
+      </c>
+      <c r="F523" t="n">
+        <v>   254730</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -11945,9 +11885,15 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
-      <c r="E524"/>
-      <c r="F524"/>
+      <c r="D524" t="n">
+        <v>  4759044</v>
+      </c>
+      <c r="E524" t="n">
+        <v>  4644944</v>
+      </c>
+      <c r="F524" t="n">
+        <v>   261038</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -11959,9 +11905,15 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
-      <c r="E525"/>
-      <c r="F525"/>
+      <c r="D525" t="n">
+        <v>  4931316</v>
+      </c>
+      <c r="E525" t="n">
+        <v>  4816037</v>
+      </c>
+      <c r="F525" t="n">
+        <v>   267060</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -11973,9 +11925,15 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
-      <c r="E526"/>
-      <c r="F526"/>
+      <c r="D526" t="n">
+        <v>  5097014</v>
+      </c>
+      <c r="E526" t="n">
+        <v>  4987014</v>
+      </c>
+      <c r="F526" t="n">
+        <v>   272795</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -11987,9 +11945,15 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
-      <c r="E527"/>
-      <c r="F527"/>
+      <c r="D527" t="n">
+        <v>  5257093</v>
+      </c>
+      <c r="E527" t="n">
+        <v>  5158958</v>
+      </c>
+      <c r="F527" t="n">
+        <v>   278319</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -12001,9 +11965,15 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
-      <c r="E528"/>
-      <c r="F528"/>
+      <c r="D528" t="n">
+        <v>  5413227</v>
+      </c>
+      <c r="E528" t="n">
+        <v>  5333775</v>
+      </c>
+      <c r="F528" t="n">
+        <v>   283631</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -12015,9 +11985,15 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
-      <c r="E529"/>
-      <c r="F529"/>
+      <c r="D529" t="n">
+        <v>  5568229</v>
+      </c>
+      <c r="E529" t="n">
+        <v>  5514346</v>
+      </c>
+      <c r="F529" t="n">
+        <v>   288750</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -12029,9 +12005,15 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
-      <c r="E530"/>
-      <c r="F530"/>
+      <c r="D530" t="n">
+        <v>  5724211</v>
+      </c>
+      <c r="E530" t="n">
+        <v>  5702831</v>
+      </c>
+      <c r="F530" t="n">
+        <v>   293739</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -12043,9 +12025,15 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
-      <c r="E531"/>
-      <c r="F531"/>
+      <c r="D531" t="n">
+        <v>  5881523</v>
+      </c>
+      <c r="E531" t="n">
+        <v>  5899978</v>
+      </c>
+      <c r="F531" t="n">
+        <v>   298535</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -12057,9 +12045,15 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
-      <c r="E532"/>
-      <c r="F532"/>
+      <c r="D532" t="n">
+        <v>  6039543</v>
+      </c>
+      <c r="E532" t="n">
+        <v>  6105377</v>
+      </c>
+      <c r="F532" t="n">
+        <v>   303254</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -12071,9 +12065,15 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
-      <c r="E533"/>
-      <c r="F533"/>
+      <c r="D533" t="n">
+        <v>  6208030</v>
+      </c>
+      <c r="E533" t="n">
+        <v>  6307774</v>
+      </c>
+      <c r="F533" t="n">
+        <v>   309510</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -12086,13 +12086,13 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>  4065218</v>
+        <v>  4293653</v>
       </c>
       <c r="E534" t="n">
-        <v>  3999691</v>
+        <v> 10040921</v>
       </c>
       <c r="F534" t="n">
-        <v>   236242</v>
+        <v>  1119828</v>
       </c>
     </row>
     <row r="535">
@@ -12106,13 +12106,13 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>  4230043</v>
+        <v>  4262049</v>
       </c>
       <c r="E535" t="n">
-        <v>  4148768</v>
+        <v> 10221872</v>
       </c>
       <c r="F535" t="n">
-        <v>   242105</v>
+        <v>  1155373</v>
       </c>
     </row>
     <row r="536">
@@ -12126,13 +12126,13 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>  4403604</v>
+        <v>  4221485</v>
       </c>
       <c r="E536" t="n">
-        <v>  4308028</v>
+        <v> 10406262</v>
       </c>
       <c r="F536" t="n">
-        <v>   248331</v>
+        <v>  1191771</v>
       </c>
     </row>
     <row r="537">
@@ -12146,13 +12146,13 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>  4581794</v>
+        <v>  4173820</v>
       </c>
       <c r="E537" t="n">
-        <v>  4474709</v>
+        <v> 10592148</v>
       </c>
       <c r="F537" t="n">
-        <v>   254730</v>
+        <v>  1229688</v>
       </c>
     </row>
     <row r="538">
@@ -12166,13 +12166,13 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>  4759044</v>
+        <v>  4121268</v>
       </c>
       <c r="E538" t="n">
-        <v>  4644944</v>
+        <v> 10776979</v>
       </c>
       <c r="F538" t="n">
-        <v>   261038</v>
+        <v>  1269990</v>
       </c>
     </row>
     <row r="539">
@@ -12186,13 +12186,13 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>  4931316</v>
+        <v>  4065866</v>
       </c>
       <c r="E539" t="n">
-        <v>  4816037</v>
+        <v> 10958573</v>
       </c>
       <c r="F539" t="n">
-        <v>   267060</v>
+        <v>  1313310</v>
       </c>
     </row>
     <row r="540">
@@ -12206,13 +12206,13 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>  5097014</v>
+        <v>  4008375</v>
       </c>
       <c r="E540" t="n">
-        <v>  4987014</v>
+        <v> 11136140</v>
       </c>
       <c r="F540" t="n">
-        <v>   272795</v>
+        <v>  1360014</v>
       </c>
     </row>
     <row r="541">
@@ -12226,13 +12226,13 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>  5257093</v>
+        <v>  3949909</v>
       </c>
       <c r="E541" t="n">
-        <v>  5158958</v>
+        <v> 11308988</v>
       </c>
       <c r="F541" t="n">
-        <v>   278319</v>
+        <v>  1409993</v>
       </c>
     </row>
     <row r="542">
@@ -12246,13 +12246,13 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>  5413227</v>
+        <v>  3893226</v>
       </c>
       <c r="E542" t="n">
-        <v>  5333775</v>
+        <v> 11475113</v>
       </c>
       <c r="F542" t="n">
-        <v>   283631</v>
+        <v>  1462848</v>
       </c>
     </row>
     <row r="543">
@@ -12266,13 +12266,13 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>  5568229</v>
+        <v>  3841551</v>
       </c>
       <c r="E543" t="n">
-        <v>  5514346</v>
+        <v> 11632260</v>
       </c>
       <c r="F543" t="n">
-        <v>   288750</v>
+        <v>  1517919</v>
       </c>
     </row>
     <row r="544">
@@ -12286,13 +12286,13 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>  5724211</v>
+        <v>  3797214</v>
       </c>
       <c r="E544" t="n">
-        <v>  5702831</v>
+        <v> 11778760</v>
       </c>
       <c r="F544" t="n">
-        <v>   293739</v>
+        <v>  1574786</v>
       </c>
     </row>
     <row r="545">
@@ -12306,13 +12306,13 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>  5881523</v>
+        <v>  3761454</v>
       </c>
       <c r="E545" t="n">
-        <v>  5899978</v>
+        <v> 11913474</v>
       </c>
       <c r="F545" t="n">
-        <v>   298535</v>
+        <v>  1633522</v>
       </c>
     </row>
     <row r="546">
@@ -12326,13 +12326,13 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>  6039543</v>
+        <v>  3733959</v>
       </c>
       <c r="E546" t="n">
-        <v>  6105377</v>
+        <v> 12036368</v>
       </c>
       <c r="F546" t="n">
-        <v>   303254</v>
+        <v>  1694483</v>
       </c>
     </row>
     <row r="547">
@@ -12346,13 +12346,13 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>  6208030</v>
+        <v>  3715100</v>
       </c>
       <c r="E547" t="n">
-        <v>  6307774</v>
+        <v> 12147675</v>
       </c>
       <c r="F547" t="n">
-        <v>   309510</v>
+        <v>  1756933</v>
       </c>
     </row>
     <row r="548">
@@ -12366,13 +12366,13 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>  4293653</v>
+        <v>323182264</v>
       </c>
       <c r="E548" t="n">
-        <v> 10040921</v>
+        <v>852719640</v>
       </c>
       <c r="F548" t="n">
-        <v>  1119828</v>
+        <v> 86743084</v>
       </c>
     </row>
     <row r="549">
@@ -12386,13 +12386,13 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>  4262049</v>
+        <v>313318261</v>
       </c>
       <c r="E549" t="n">
-        <v> 10221872</v>
+        <v>869138287</v>
       </c>
       <c r="F549" t="n">
-        <v>  1155373</v>
+        <v> 89393428</v>
       </c>
     </row>
     <row r="550">
@@ -12406,13 +12406,13 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>  4221485</v>
+        <v>301693884</v>
       </c>
       <c r="E550" t="n">
-        <v> 10406262</v>
+        <v>886584881</v>
       </c>
       <c r="F550" t="n">
-        <v>  1191771</v>
+        <v> 92121265</v>
       </c>
     </row>
     <row r="551">
@@ -12426,13 +12426,13 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>  4173820</v>
+        <v>289310145</v>
       </c>
       <c r="E551" t="n">
-        <v> 10592148</v>
+        <v>904236379</v>
       </c>
       <c r="F551" t="n">
-        <v>  1229688</v>
+        <v> 94853482</v>
       </c>
     </row>
     <row r="552">
@@ -12446,13 +12446,13 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>  4121268</v>
+        <v>277521125</v>
       </c>
       <c r="E552" t="n">
-        <v> 10776979</v>
+        <v>921052269</v>
       </c>
       <c r="F552" t="n">
-        <v>  1269990</v>
+        <v> 97501643</v>
       </c>
     </row>
     <row r="553">
@@ -12466,13 +12466,13 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>  4065866</v>
+        <v>267363508</v>
       </c>
       <c r="E553" t="n">
-        <v> 10958573</v>
+        <v>936333988</v>
       </c>
       <c r="F553" t="n">
-        <v>  1313310</v>
+        <v>100022504</v>
       </c>
     </row>
     <row r="554">
@@ -12486,13 +12486,13 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>  4008375</v>
+        <v>259101015</v>
       </c>
       <c r="E554" t="n">
-        <v> 11136140</v>
+        <v>949534181</v>
       </c>
       <c r="F554" t="n">
-        <v>  1360014</v>
+        <v>102384829</v>
       </c>
     </row>
     <row r="555">
@@ -12506,13 +12506,13 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>  3949909</v>
+        <v>252594441</v>
       </c>
       <c r="E555" t="n">
-        <v> 11308988</v>
+        <v>960656943</v>
       </c>
       <c r="F555" t="n">
-        <v>  1409993</v>
+        <v>104633591</v>
       </c>
     </row>
     <row r="556">
@@ -12526,13 +12526,13 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>  3893226</v>
+        <v>247849811</v>
       </c>
       <c r="E556" t="n">
-        <v> 11475113</v>
+        <v>969935551</v>
       </c>
       <c r="F556" t="n">
-        <v>  1462848</v>
+        <v>106869588</v>
       </c>
     </row>
     <row r="557">
@@ -12546,13 +12546,13 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>  3841551</v>
+        <v>244622148</v>
       </c>
       <c r="E557" t="n">
-        <v> 11632260</v>
+        <v>977445600</v>
       </c>
       <c r="F557" t="n">
-        <v>  1517919</v>
+        <v>109192289</v>
       </c>
     </row>
     <row r="558">
@@ -12566,13 +12566,13 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>  3797214</v>
+        <v>242694634</v>
       </c>
       <c r="E558" t="n">
-        <v> 11778760</v>
+        <v>983311866</v>
       </c>
       <c r="F558" t="n">
-        <v>  1574786</v>
+        <v>111698500</v>
       </c>
     </row>
     <row r="559">
@@ -12586,13 +12586,13 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>  3761454</v>
+        <v>242126399</v>
       </c>
       <c r="E559" t="n">
-        <v> 11913474</v>
+        <v>987638876</v>
       </c>
       <c r="F559" t="n">
-        <v>  1633522</v>
+        <v>114364687</v>
       </c>
     </row>
     <row r="560">
@@ -12606,13 +12606,13 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>  3733959</v>
+        <v>242914002</v>
       </c>
       <c r="E560" t="n">
-        <v> 12036368</v>
+        <v>990545665</v>
       </c>
       <c r="F560" t="n">
-        <v>  1694483</v>
+        <v>117235332</v>
       </c>
     </row>
     <row r="561">
@@ -12626,13 +12626,13 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>  3715100</v>
+        <v>244746591</v>
       </c>
       <c r="E561" t="n">
-        <v> 12147675</v>
+        <v>992158430</v>
       </c>
       <c r="F561" t="n">
-        <v>  1756933</v>
+        <v>120474979</v>
       </c>
     </row>
     <row r="562">
@@ -12646,13 +12646,13 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>323182264</v>
+        <v> 13100938</v>
       </c>
       <c r="E562" t="n">
-        <v>852719640</v>
+        <v> 24909012</v>
       </c>
       <c r="F562" t="n">
-        <v> 86743084</v>
+        <v>  1888034</v>
       </c>
     </row>
     <row r="563">
@@ -12666,13 +12666,13 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>313318261</v>
+        <v> 13151457</v>
       </c>
       <c r="E563" t="n">
-        <v>869138287</v>
+        <v> 25464336</v>
       </c>
       <c r="F563" t="n">
-        <v> 89393428</v>
+        <v>  1942854</v>
       </c>
     </row>
     <row r="564">
@@ -12686,13 +12686,13 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>301693884</v>
+        <v> 13195277</v>
       </c>
       <c r="E564" t="n">
-        <v>886584881</v>
+        <v> 26020940</v>
       </c>
       <c r="F564" t="n">
-        <v> 92121265</v>
+        <v>  2000088</v>
       </c>
     </row>
     <row r="565">
@@ -12706,13 +12706,13 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>289310145</v>
+        <v> 13232799</v>
       </c>
       <c r="E565" t="n">
-        <v>904236379</v>
+        <v> 26579199</v>
       </c>
       <c r="F565" t="n">
-        <v> 94853482</v>
+        <v>  2060055</v>
       </c>
     </row>
     <row r="566">
@@ -12726,13 +12726,13 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>277521125</v>
+        <v> 13264476</v>
       </c>
       <c r="E566" t="n">
-        <v>921052269</v>
+        <v> 27140044</v>
       </c>
       <c r="F566" t="n">
-        <v> 97501643</v>
+        <v>  2123103</v>
       </c>
     </row>
     <row r="567">
@@ -12746,13 +12746,13 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>267363508</v>
+        <v> 13290777</v>
       </c>
       <c r="E567" t="n">
-        <v>936333988</v>
+        <v> 27703506</v>
       </c>
       <c r="F567" t="n">
-        <v>100022504</v>
+        <v>  2189745</v>
       </c>
     </row>
     <row r="568">
@@ -12766,13 +12766,13 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>259101015</v>
+        <v> 13311809</v>
       </c>
       <c r="E568" t="n">
-        <v>949534181</v>
+        <v> 28269385</v>
       </c>
       <c r="F568" t="n">
-        <v>102384829</v>
+        <v>  2260174</v>
       </c>
     </row>
     <row r="569">
@@ -12786,13 +12786,13 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>252594441</v>
+        <v> 13327950</v>
       </c>
       <c r="E569" t="n">
-        <v>960656943</v>
+        <v> 28835230</v>
       </c>
       <c r="F569" t="n">
-        <v>104633591</v>
+        <v>  2335211</v>
       </c>
     </row>
     <row r="570">
@@ -12806,13 +12806,13 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>247849811</v>
+        <v> 13340233</v>
       </c>
       <c r="E570" t="n">
-        <v>969935551</v>
+        <v> 29396046</v>
       </c>
       <c r="F570" t="n">
-        <v>106869588</v>
+        <v>  2416758</v>
       </c>
     </row>
     <row r="571">
@@ -12826,13 +12826,13 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>244622148</v>
+        <v> 13349938</v>
       </c>
       <c r="E571" t="n">
-        <v>977445600</v>
+        <v> 29945420</v>
       </c>
       <c r="F571" t="n">
-        <v>109192289</v>
+        <v>  2507205</v>
       </c>
     </row>
     <row r="572">
@@ -12846,13 +12846,13 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>242694634</v>
+        <v> 13357954</v>
       </c>
       <c r="E572" t="n">
-        <v>983311866</v>
+        <v> 30478502</v>
       </c>
       <c r="F572" t="n">
-        <v>111698500</v>
+        <v>  2608342</v>
       </c>
     </row>
     <row r="573">
@@ -12866,13 +12866,13 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>242126399</v>
+        <v> 13364599</v>
       </c>
       <c r="E573" t="n">
-        <v>987638876</v>
+        <v> 30993349</v>
       </c>
       <c r="F573" t="n">
-        <v>114364687</v>
+        <v>  2720841</v>
       </c>
     </row>
     <row r="574">
@@ -12886,13 +12886,13 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>242914002</v>
+        <v> 13369592</v>
       </c>
       <c r="E574" t="n">
-        <v>990545665</v>
+        <v> 31490232</v>
       </c>
       <c r="F574" t="n">
-        <v>117235332</v>
+        <v>  2844601</v>
       </c>
     </row>
     <row r="575">
@@ -12906,13 +12906,13 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>244746591</v>
+        <v> 13379216</v>
       </c>
       <c r="E575" t="n">
-        <v>992158430</v>
+        <v> 31964028</v>
       </c>
       <c r="F575" t="n">
-        <v>120474979</v>
+        <v>  2978161</v>
       </c>
     </row>
     <row r="576">
@@ -12926,13 +12926,13 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v> 13100938</v>
+        <v>   219496</v>
       </c>
       <c r="E576" t="n">
-        <v> 24909012</v>
+        <v>   292521</v>
       </c>
       <c r="F576" t="n">
-        <v>  1888034</v>
+        <v>    16295</v>
       </c>
     </row>
     <row r="577">
@@ -12946,13 +12946,13 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v> 13151457</v>
+        <v>   224403</v>
       </c>
       <c r="E577" t="n">
-        <v> 25464336</v>
+        <v>   300942</v>
       </c>
       <c r="F577" t="n">
-        <v>  1942854</v>
+        <v>    16631</v>
       </c>
     </row>
     <row r="578">
@@ -12966,13 +12966,13 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v> 13195277</v>
+        <v>   229891</v>
       </c>
       <c r="E578" t="n">
-        <v> 26020940</v>
+        <v>   309159</v>
       </c>
       <c r="F578" t="n">
-        <v>  2000088</v>
+        <v>    16976</v>
       </c>
     </row>
     <row r="579">
@@ -12986,13 +12986,13 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v> 13232799</v>
+        <v>   235941</v>
       </c>
       <c r="E579" t="n">
-        <v> 26579199</v>
+        <v>   317222</v>
       </c>
       <c r="F579" t="n">
-        <v>  2060055</v>
+        <v>    17326</v>
       </c>
     </row>
     <row r="580">
@@ -13006,13 +13006,13 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v> 13264476</v>
+        <v>   242495</v>
       </c>
       <c r="E580" t="n">
-        <v> 27140044</v>
+        <v>   325212</v>
       </c>
       <c r="F580" t="n">
-        <v>  2123103</v>
+        <v>    17682</v>
       </c>
     </row>
     <row r="581">
@@ -13026,13 +13026,13 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v> 13290777</v>
+        <v>   249492</v>
       </c>
       <c r="E581" t="n">
-        <v> 27703506</v>
+        <v>   333201</v>
       </c>
       <c r="F581" t="n">
-        <v>  2189745</v>
+        <v>    18040</v>
       </c>
     </row>
     <row r="582">
@@ -13046,13 +13046,13 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v> 13311809</v>
+        <v>   256926</v>
       </c>
       <c r="E582" t="n">
-        <v> 28269385</v>
+        <v>   341192</v>
       </c>
       <c r="F582" t="n">
-        <v>  2260174</v>
+        <v>    18409</v>
       </c>
     </row>
     <row r="583">
@@ -13066,13 +13066,13 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v> 13327950</v>
+        <v>   264736</v>
       </c>
       <c r="E583" t="n">
-        <v> 28835230</v>
+        <v>   349207</v>
       </c>
       <c r="F583" t="n">
-        <v>  2335211</v>
+        <v>    18791</v>
       </c>
     </row>
     <row r="584">
@@ -13086,13 +13086,13 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v> 13340233</v>
+        <v>   272727</v>
       </c>
       <c r="E584" t="n">
-        <v> 29396046</v>
+        <v>   357390</v>
       </c>
       <c r="F584" t="n">
-        <v>  2416758</v>
+        <v>    19176</v>
       </c>
     </row>
     <row r="585">
@@ -13106,13 +13106,13 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v> 13349938</v>
+        <v>   280643</v>
       </c>
       <c r="E585" t="n">
-        <v> 29945420</v>
+        <v>   365907</v>
       </c>
       <c r="F585" t="n">
-        <v>  2507205</v>
+        <v>    19546</v>
       </c>
     </row>
     <row r="586">
@@ -13126,13 +13126,13 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v> 13357954</v>
+        <v>   288290</v>
       </c>
       <c r="E586" t="n">
-        <v> 30478502</v>
+        <v>   374898</v>
       </c>
       <c r="F586" t="n">
-        <v>  2608342</v>
+        <v>    19893</v>
       </c>
     </row>
     <row r="587">
@@ -13146,13 +13146,13 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v> 13364599</v>
+        <v>   295589</v>
       </c>
       <c r="E587" t="n">
-        <v> 30993349</v>
+        <v>   384411</v>
       </c>
       <c r="F587" t="n">
-        <v>  2720841</v>
+        <v>    20214</v>
       </c>
     </row>
     <row r="588">
@@ -13166,13 +13166,13 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v> 13369592</v>
+        <v>   302539</v>
       </c>
       <c r="E588" t="n">
-        <v> 31490232</v>
+        <v>   394440</v>
       </c>
       <c r="F588" t="n">
-        <v>  2844601</v>
+        <v>    20524</v>
       </c>
     </row>
     <row r="589">
@@ -13186,13 +13186,13 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v> 13379216</v>
+        <v>   309281</v>
       </c>
       <c r="E589" t="n">
-        <v> 31964028</v>
+        <v>   404696</v>
       </c>
       <c r="F589" t="n">
-        <v>  2978161</v>
+        <v>    20940</v>
       </c>
     </row>
     <row r="590">
@@ -13206,13 +13206,13 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>   219496</v>
+        <v>  1309779</v>
       </c>
       <c r="E590" t="n">
-        <v>   292521</v>
+        <v>  1703841</v>
       </c>
       <c r="F590" t="n">
-        <v>    16295</v>
+        <v>   112584</v>
       </c>
     </row>
     <row r="591">
@@ -13226,13 +13226,13 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>   224403</v>
+        <v>  1343581</v>
       </c>
       <c r="E591" t="n">
-        <v>   300942</v>
+        <v>  1747153</v>
       </c>
       <c r="F591" t="n">
-        <v>    16631</v>
+        <v>   114903</v>
       </c>
     </row>
     <row r="592">
@@ -13246,13 +13246,13 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>   229891</v>
+        <v>  1378456</v>
       </c>
       <c r="E592" t="n">
-        <v>   309159</v>
+        <v>  1788086</v>
       </c>
       <c r="F592" t="n">
-        <v>    16976</v>
+        <v>   117176</v>
       </c>
     </row>
     <row r="593">
@@ -13266,13 +13266,13 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>   235941</v>
+        <v>  1414936</v>
       </c>
       <c r="E593" t="n">
-        <v>   317222</v>
+        <v>  1829011</v>
       </c>
       <c r="F593" t="n">
-        <v>    17326</v>
+        <v>   119472</v>
       </c>
     </row>
     <row r="594">
@@ -13286,13 +13286,13 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>   242495</v>
+        <v>  1453744</v>
       </c>
       <c r="E594" t="n">
-        <v>   325212</v>
+        <v>  1873239</v>
       </c>
       <c r="F594" t="n">
-        <v>    17682</v>
+        <v>   121887</v>
       </c>
     </row>
     <row r="595">
@@ -13306,13 +13306,13 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>   249492</v>
+        <v>  1495329</v>
       </c>
       <c r="E595" t="n">
-        <v>   333201</v>
+        <v>  1923056</v>
       </c>
       <c r="F595" t="n">
-        <v>    18040</v>
+        <v>   124482</v>
       </c>
     </row>
     <row r="596">
@@ -13326,13 +13326,13 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>   256926</v>
+        <v>  1539808</v>
       </c>
       <c r="E596" t="n">
-        <v>   341192</v>
+        <v>  1979550</v>
       </c>
       <c r="F596" t="n">
-        <v>    18409</v>
+        <v>   127295</v>
       </c>
     </row>
     <row r="597">
@@ -13346,13 +13346,13 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>   264736</v>
+        <v>  1586822</v>
       </c>
       <c r="E597" t="n">
-        <v>   349207</v>
+        <v>  2041718</v>
       </c>
       <c r="F597" t="n">
-        <v>    18791</v>
+        <v>   130314</v>
       </c>
     </row>
     <row r="598">
@@ -13366,13 +13366,13 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>   272727</v>
+        <v>  1635770</v>
       </c>
       <c r="E598" t="n">
-        <v>   357390</v>
+        <v>  2107212</v>
       </c>
       <c r="F598" t="n">
-        <v>    19176</v>
+        <v>   133492</v>
       </c>
     </row>
     <row r="599">
@@ -13386,13 +13386,13 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>   280643</v>
+        <v>  1685794</v>
       </c>
       <c r="E599" t="n">
-        <v>   365907</v>
+        <v>  2172593</v>
       </c>
       <c r="F599" t="n">
-        <v>    19546</v>
+        <v>   136759</v>
       </c>
     </row>
     <row r="600">
@@ -13406,13 +13406,13 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>   288290</v>
+        <v>  1736199</v>
       </c>
       <c r="E600" t="n">
-        <v>   374898</v>
+        <v>  2235451</v>
       </c>
       <c r="F600" t="n">
-        <v>    19893</v>
+        <v>   140065</v>
       </c>
     </row>
     <row r="601">
@@ -13426,13 +13426,13 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>   295589</v>
+        <v>  1786799</v>
       </c>
       <c r="E601" t="n">
-        <v>   384411</v>
+        <v>  2295150</v>
       </c>
       <c r="F601" t="n">
-        <v>    20214</v>
+        <v>   143406</v>
       </c>
     </row>
     <row r="602">
@@ -13446,13 +13446,13 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>   302539</v>
+        <v>  1837507</v>
       </c>
       <c r="E602" t="n">
-        <v>   394440</v>
+        <v>  2352720</v>
       </c>
       <c r="F602" t="n">
-        <v>    20524</v>
+        <v>   146825</v>
       </c>
     </row>
     <row r="603">
@@ -13466,13 +13466,13 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>   309281</v>
+        <v>  1891869</v>
       </c>
       <c r="E603" t="n">
-        <v>   404696</v>
+        <v>  2404859</v>
       </c>
       <c r="F603" t="n">
-        <v>    20940</v>
+        <v>   150904</v>
       </c>
     </row>
     <row r="604">
@@ -13486,13 +13486,13 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>  1309779</v>
+        <v>  1236012</v>
       </c>
       <c r="E604" t="n">
-        <v>  1703841</v>
+        <v>  2479321</v>
       </c>
       <c r="F604" t="n">
-        <v>   112584</v>
+        <v>   214255</v>
       </c>
     </row>
     <row r="605">
@@ -13506,13 +13506,13 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>  1343581</v>
+        <v>  1234576</v>
       </c>
       <c r="E605" t="n">
-        <v>  1747153</v>
+        <v>  2557295</v>
       </c>
       <c r="F605" t="n">
-        <v>   114903</v>
+        <v>   221617</v>
       </c>
     </row>
     <row r="606">
@@ -13526,13 +13526,13 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>  1378456</v>
+        <v>  1229891</v>
       </c>
       <c r="E606" t="n">
-        <v>  1788086</v>
+        <v>  2634630</v>
       </c>
       <c r="F606" t="n">
-        <v>   117176</v>
+        <v>   229320</v>
       </c>
     </row>
     <row r="607">
@@ -13546,13 +13546,13 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>  1414936</v>
+        <v>  1222793</v>
       </c>
       <c r="E607" t="n">
-        <v>  1829011</v>
+        <v>  2711014</v>
       </c>
       <c r="F607" t="n">
-        <v>   119472</v>
+        <v>   237334</v>
       </c>
     </row>
     <row r="608">
@@ -13566,13 +13566,13 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>  1453744</v>
+        <v>  1214437</v>
       </c>
       <c r="E608" t="n">
-        <v>  1873239</v>
+        <v>  2786284</v>
       </c>
       <c r="F608" t="n">
-        <v>   121887</v>
+        <v>   245615</v>
       </c>
     </row>
     <row r="609">
@@ -13586,13 +13586,13 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>  1495329</v>
+        <v>  1205723</v>
       </c>
       <c r="E609" t="n">
-        <v>  1923056</v>
+        <v>  2860256</v>
       </c>
       <c r="F609" t="n">
-        <v>   124482</v>
+        <v>   254151</v>
       </c>
     </row>
     <row r="610">
@@ -13606,13 +13606,13 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>  1539808</v>
+        <v>  1196941</v>
       </c>
       <c r="E610" t="n">
-        <v>  1979550</v>
+        <v>  2932565</v>
       </c>
       <c r="F610" t="n">
-        <v>   127295</v>
+        <v>   262989</v>
       </c>
     </row>
     <row r="611">
@@ -13626,13 +13626,13 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>  1586822</v>
+        <v>  1188090</v>
       </c>
       <c r="E611" t="n">
-        <v>  2041718</v>
+        <v>  3002909</v>
       </c>
       <c r="F611" t="n">
-        <v>   130314</v>
+        <v>   272228</v>
       </c>
     </row>
     <row r="612">
@@ -13646,13 +13646,13 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>  1635770</v>
+        <v>  1179431</v>
       </c>
       <c r="E612" t="n">
-        <v>  2107212</v>
+        <v>  3071305</v>
       </c>
       <c r="F612" t="n">
-        <v>   133492</v>
+        <v>   281975</v>
       </c>
     </row>
     <row r="613">
@@ -13666,13 +13666,13 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>  1685794</v>
+        <v>  1171178</v>
       </c>
       <c r="E613" t="n">
-        <v>  2172593</v>
+        <v>  3137882</v>
       </c>
       <c r="F613" t="n">
-        <v>   136759</v>
+        <v>   292362</v>
       </c>
     </row>
     <row r="614">
@@ -13686,13 +13686,13 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>  1736199</v>
+        <v>  1163479</v>
       </c>
       <c r="E614" t="n">
-        <v>  2235451</v>
+        <v>  3202674</v>
       </c>
       <c r="F614" t="n">
-        <v>   140065</v>
+        <v>   303532</v>
       </c>
     </row>
     <row r="615">
@@ -13706,13 +13706,13 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>  1786799</v>
+        <v>  1156569</v>
       </c>
       <c r="E615" t="n">
-        <v>  2295150</v>
+        <v>  3265606</v>
       </c>
       <c r="F615" t="n">
-        <v>   143406</v>
+        <v>   315509</v>
       </c>
     </row>
     <row r="616">
@@ -13726,13 +13726,13 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>  1837507</v>
+        <v>  1150496</v>
       </c>
       <c r="E616" t="n">
-        <v>  2352720</v>
+        <v>  3326411</v>
       </c>
       <c r="F616" t="n">
-        <v>   146825</v>
+        <v>   328384</v>
       </c>
     </row>
     <row r="617">
@@ -13746,13 +13746,13 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>  1891869</v>
+        <v>  1145730</v>
       </c>
       <c r="E617" t="n">
-        <v>  2404859</v>
+        <v>  3384239</v>
       </c>
       <c r="F617" t="n">
-        <v>   150904</v>
+        <v>   342197</v>
       </c>
     </row>
     <row r="618">
@@ -13766,13 +13766,13 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>  1236012</v>
+        <v>  6790861</v>
       </c>
       <c r="E618" t="n">
-        <v>  2479321</v>
+        <v>  8873248</v>
       </c>
       <c r="F618" t="n">
-        <v>   214255</v>
+        <v>   467223</v>
       </c>
     </row>
     <row r="619">
@@ -13786,13 +13786,13 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>  1234576</v>
+        <v>  6912964</v>
       </c>
       <c r="E619" t="n">
-        <v>  2557295</v>
+        <v>  9030623</v>
       </c>
       <c r="F619" t="n">
-        <v>   221617</v>
+        <v>   476590</v>
       </c>
     </row>
     <row r="620">
@@ -13806,13 +13806,13 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>  1229891</v>
+        <v>  7029675</v>
       </c>
       <c r="E620" t="n">
-        <v>  2634630</v>
+        <v>  9160204</v>
       </c>
       <c r="F620" t="n">
-        <v>   229320</v>
+        <v>   485109</v>
       </c>
     </row>
     <row r="621">
@@ -13826,13 +13826,13 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>  1222793</v>
+        <v>  7142106</v>
       </c>
       <c r="E621" t="n">
-        <v>  2711014</v>
+        <v>  9274170</v>
       </c>
       <c r="F621" t="n">
-        <v>   237334</v>
+        <v>   493525</v>
       </c>
     </row>
     <row r="622">
@@ -13846,13 +13846,13 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>  1214437</v>
+        <v>  7251888</v>
       </c>
       <c r="E622" t="n">
-        <v>  2786284</v>
+        <v>  9389602</v>
       </c>
       <c r="F622" t="n">
-        <v>   245615</v>
+        <v>   502834</v>
       </c>
     </row>
     <row r="623">
@@ -13866,13 +13866,13 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>  1205723</v>
+        <v>  7360628</v>
       </c>
       <c r="E623" t="n">
-        <v>  2860256</v>
+        <v>  9519628</v>
       </c>
       <c r="F623" t="n">
-        <v>   254151</v>
+        <v>   513738</v>
       </c>
     </row>
     <row r="624">
@@ -13886,13 +13886,13 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>  1196941</v>
+        <v>  7468283</v>
       </c>
       <c r="E624" t="n">
-        <v>  2932565</v>
+        <v>  9667605</v>
       </c>
       <c r="F624" t="n">
-        <v>   262989</v>
+        <v>   526531</v>
       </c>
     </row>
     <row r="625">
@@ -13906,13 +13906,13 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>  1188090</v>
+        <v>  7575704</v>
       </c>
       <c r="E625" t="n">
-        <v>  3002909</v>
+        <v>  9832353</v>
       </c>
       <c r="F625" t="n">
-        <v>   272228</v>
+        <v>   541007</v>
       </c>
     </row>
     <row r="626">
@@ -13926,13 +13926,13 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>  1179431</v>
+        <v>  7686451</v>
       </c>
       <c r="E626" t="n">
-        <v>  3071305</v>
+        <v> 10016832</v>
       </c>
       <c r="F626" t="n">
-        <v>   281975</v>
+        <v>   556759</v>
       </c>
     </row>
     <row r="627">
@@ -13946,13 +13946,13 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>  1171178</v>
+        <v>  7805033</v>
       </c>
       <c r="E627" t="n">
-        <v>  3137882</v>
+        <v> 10223168</v>
       </c>
       <c r="F627" t="n">
-        <v>   292362</v>
+        <v>   573141</v>
       </c>
     </row>
     <row r="628">
@@ -13966,13 +13966,13 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>  1163479</v>
+        <v>  7934587</v>
       </c>
       <c r="E628" t="n">
-        <v>  3202674</v>
+        <v> 10452338</v>
       </c>
       <c r="F628" t="n">
-        <v>   303532</v>
+        <v>   589663</v>
       </c>
     </row>
     <row r="629">
@@ -13986,13 +13986,13 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>  1156569</v>
+        <v>  8076714</v>
       </c>
       <c r="E629" t="n">
-        <v>  3265606</v>
+        <v> 10706961</v>
       </c>
       <c r="F629" t="n">
-        <v>   315509</v>
+        <v>   606280</v>
       </c>
     </row>
     <row r="630">
@@ -14006,13 +14006,13 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>  1150496</v>
+        <v>  8230452</v>
       </c>
       <c r="E630" t="n">
-        <v>  3326411</v>
+        <v> 10986183</v>
       </c>
       <c r="F630" t="n">
-        <v>   328384</v>
+        <v>   623114</v>
       </c>
     </row>
     <row r="631">
@@ -14026,13 +14026,13 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>  1145730</v>
+        <v>  8397252</v>
       </c>
       <c r="E631" t="n">
-        <v>  3384239</v>
+        <v> 11274611</v>
       </c>
       <c r="F631" t="n">
-        <v>   342197</v>
+        <v>   644223</v>
       </c>
     </row>
     <row r="632">
@@ -56192,13 +56192,13 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>  8590723</v>
+        <v> 11187076</v>
       </c>
       <c r="E2802" t="n">
-        <v> 33812766</v>
+        <v> 38397643</v>
       </c>
       <c r="F2802" t="n">
-        <v>  6772360</v>
+        <v>  9307794</v>
       </c>
     </row>
     <row r="2803">
@@ -56212,13 +56212,13 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>  8200482</v>
+        <v> 11112176</v>
       </c>
       <c r="E2803" t="n">
-        <v> 33626592</v>
+        <v> 38658322</v>
       </c>
       <c r="F2803" t="n">
-        <v>  6856792</v>
+        <v>  9349174</v>
       </c>
     </row>
     <row r="2804">
@@ -56232,13 +56232,13 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>  7820842</v>
+        <v> 11024152</v>
       </c>
       <c r="E2804" t="n">
-        <v> 33380217</v>
+        <v> 38945371</v>
       </c>
       <c r="F2804" t="n">
-        <v>  7001442</v>
+        <v>  9400959</v>
       </c>
     </row>
     <row r="2805">
@@ -56252,13 +56252,13 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>  7476257</v>
+        <v> 10935014</v>
       </c>
       <c r="E2805" t="n">
-        <v> 33152739</v>
+        <v> 39248249</v>
       </c>
       <c r="F2805" t="n">
-        <v>  7183954</v>
+        <v>  9464314</v>
       </c>
     </row>
     <row r="2806">
@@ -56272,13 +56272,13 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>  7169518</v>
+        <v> 10866519</v>
       </c>
       <c r="E2806" t="n">
-        <v> 32936136</v>
+        <v> 39575802</v>
       </c>
       <c r="F2806" t="n">
-        <v>  7345946</v>
+        <v>  9545585</v>
       </c>
     </row>
     <row r="2807">
@@ -56292,13 +56292,13 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>  6908858</v>
+        <v> 10831326</v>
       </c>
       <c r="E2807" t="n">
-        <v> 32746780</v>
+        <v> 39922574</v>
       </c>
       <c r="F2807" t="n">
-        <v>  7449513</v>
+        <v>  9647305</v>
       </c>
     </row>
     <row r="2808">
@@ -56312,13 +56312,13 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>  6701029</v>
+        <v> 10826847</v>
       </c>
       <c r="E2808" t="n">
-        <v> 32597481</v>
+        <v> 40258774</v>
       </c>
       <c r="F2808" t="n">
-        <v>  7489237</v>
+        <v>  9761202</v>
       </c>
     </row>
     <row r="2809">
@@ -56332,13 +56332,13 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>  6547019</v>
+        <v> 10851063</v>
       </c>
       <c r="E2809" t="n">
-        <v> 32483778</v>
+        <v> 40582888</v>
       </c>
       <c r="F2809" t="n">
-        <v>  7478549</v>
+        <v>  9888508</v>
       </c>
     </row>
     <row r="2810">
@@ -56352,13 +56352,13 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>  6443396</v>
+        <v> 10896777</v>
       </c>
       <c r="E2810" t="n">
-        <v> 32391479</v>
+        <v> 40876223</v>
       </c>
       <c r="F2810" t="n">
-        <v>  7423326</v>
+        <v> 10033992</v>
       </c>
     </row>
     <row r="2811">
@@ -56372,13 +56372,13 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>  6388403</v>
+        <v> 10953243</v>
       </c>
       <c r="E2811" t="n">
-        <v> 32324068</v>
+        <v> 41118531</v>
       </c>
       <c r="F2811" t="n">
-        <v>  7340826</v>
+        <v> 10204496</v>
       </c>
     </row>
     <row r="2812">
@@ -56392,13 +56392,13 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>  6374254</v>
+        <v> 11021858</v>
       </c>
       <c r="E2812" t="n">
-        <v> 32256322</v>
+        <v> 41332129</v>
       </c>
       <c r="F2812" t="n">
-        <v>  7240124</v>
+        <v> 10412380</v>
       </c>
     </row>
     <row r="2813">
@@ -56412,13 +56412,13 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>  6398819</v>
+        <v> 11097601</v>
       </c>
       <c r="E2813" t="n">
-        <v> 32190765</v>
+        <v> 41501155</v>
       </c>
       <c r="F2813" t="n">
-        <v>  7116513</v>
+        <v> 10660163</v>
       </c>
     </row>
     <row r="2814">
@@ -56432,13 +56432,13 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>  6464603</v>
+        <v> 11171495</v>
       </c>
       <c r="E2814" t="n">
-        <v> 32150919</v>
+        <v> 41591842</v>
       </c>
       <c r="F2814" t="n">
-        <v>  6977780</v>
+        <v> 10932346</v>
       </c>
     </row>
     <row r="2815">
@@ -56452,13 +56452,13 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>  6580041</v>
+        <v> 11275929</v>
       </c>
       <c r="E2815" t="n">
-        <v> 32059443</v>
+        <v> 41610161</v>
       </c>
       <c r="F2815" t="n">
-        <v>  6850115</v>
+        <v> 11210995</v>
       </c>
     </row>
     <row r="2816">
@@ -56472,13 +56472,13 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v> 11187076</v>
+        <v>  8590723</v>
       </c>
       <c r="E2816" t="n">
-        <v> 38397643</v>
+        <v> 33812766</v>
       </c>
       <c r="F2816" t="n">
-        <v>  9307794</v>
+        <v>  6772360</v>
       </c>
     </row>
     <row r="2817">
@@ -56492,13 +56492,13 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v> 11112176</v>
+        <v>  8200482</v>
       </c>
       <c r="E2817" t="n">
-        <v> 38658322</v>
+        <v> 33626592</v>
       </c>
       <c r="F2817" t="n">
-        <v>  9349174</v>
+        <v>  6856792</v>
       </c>
     </row>
     <row r="2818">
@@ -56512,13 +56512,13 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v> 11024152</v>
+        <v>  7820842</v>
       </c>
       <c r="E2818" t="n">
-        <v> 38945371</v>
+        <v> 33380217</v>
       </c>
       <c r="F2818" t="n">
-        <v>  9400959</v>
+        <v>  7001442</v>
       </c>
     </row>
     <row r="2819">
@@ -56532,13 +56532,13 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v> 10935014</v>
+        <v>  7476257</v>
       </c>
       <c r="E2819" t="n">
-        <v> 39248249</v>
+        <v> 33152739</v>
       </c>
       <c r="F2819" t="n">
-        <v>  9464314</v>
+        <v>  7183954</v>
       </c>
     </row>
     <row r="2820">
@@ -56552,13 +56552,13 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v> 10866519</v>
+        <v>  7169518</v>
       </c>
       <c r="E2820" t="n">
-        <v> 39575802</v>
+        <v> 32936136</v>
       </c>
       <c r="F2820" t="n">
-        <v>  9545585</v>
+        <v>  7345946</v>
       </c>
     </row>
     <row r="2821">
@@ -56572,13 +56572,13 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v> 10831326</v>
+        <v>  6908858</v>
       </c>
       <c r="E2821" t="n">
-        <v> 39922574</v>
+        <v> 32746780</v>
       </c>
       <c r="F2821" t="n">
-        <v>  9647305</v>
+        <v>  7449513</v>
       </c>
     </row>
     <row r="2822">
@@ -56592,13 +56592,13 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v> 10826847</v>
+        <v>  6701029</v>
       </c>
       <c r="E2822" t="n">
-        <v> 40258774</v>
+        <v> 32597481</v>
       </c>
       <c r="F2822" t="n">
-        <v>  9761202</v>
+        <v>  7489237</v>
       </c>
     </row>
     <row r="2823">
@@ -56612,13 +56612,13 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v> 10851063</v>
+        <v>  6547019</v>
       </c>
       <c r="E2823" t="n">
-        <v> 40582888</v>
+        <v> 32483778</v>
       </c>
       <c r="F2823" t="n">
-        <v>  9888508</v>
+        <v>  7478549</v>
       </c>
     </row>
     <row r="2824">
@@ -56632,13 +56632,13 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v> 10896777</v>
+        <v>  6443396</v>
       </c>
       <c r="E2824" t="n">
-        <v> 40876223</v>
+        <v> 32391479</v>
       </c>
       <c r="F2824" t="n">
-        <v> 10033992</v>
+        <v>  7423326</v>
       </c>
     </row>
     <row r="2825">
@@ -56652,13 +56652,13 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v> 10953243</v>
+        <v>  6388403</v>
       </c>
       <c r="E2825" t="n">
-        <v> 41118531</v>
+        <v> 32324068</v>
       </c>
       <c r="F2825" t="n">
-        <v> 10204496</v>
+        <v>  7340826</v>
       </c>
     </row>
     <row r="2826">
@@ -56672,13 +56672,13 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v> 11021858</v>
+        <v>  6374254</v>
       </c>
       <c r="E2826" t="n">
-        <v> 41332129</v>
+        <v> 32256322</v>
       </c>
       <c r="F2826" t="n">
-        <v> 10412380</v>
+        <v>  7240124</v>
       </c>
     </row>
     <row r="2827">
@@ -56692,13 +56692,13 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v> 11097601</v>
+        <v>  6398819</v>
       </c>
       <c r="E2827" t="n">
-        <v> 41501155</v>
+        <v> 32190765</v>
       </c>
       <c r="F2827" t="n">
-        <v> 10660163</v>
+        <v>  7116513</v>
       </c>
     </row>
     <row r="2828">
@@ -56712,13 +56712,13 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v> 11171495</v>
+        <v>  6464603</v>
       </c>
       <c r="E2828" t="n">
-        <v> 41591842</v>
+        <v> 32150919</v>
       </c>
       <c r="F2828" t="n">
-        <v> 10932346</v>
+        <v>  6977780</v>
       </c>
     </row>
     <row r="2829">
@@ -56732,13 +56732,13 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v> 11275929</v>
+        <v>  6580041</v>
       </c>
       <c r="E2829" t="n">
-        <v> 41610161</v>
+        <v> 32059443</v>
       </c>
       <c r="F2829" t="n">
-        <v> 11210995</v>
+        <v>  6850115</v>
       </c>
     </row>
     <row r="2830">
